--- a/招聘.xlsx
+++ b/招聘.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12759\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\FindWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DF1427-FF9B-4CE6-971E-A2FBC21A691D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF0F550-2BFF-45D7-AA6E-1F6A533A8850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D484C57-A207-46EA-AB74-95F0542E244B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>乘东风，共成长|东方风起，聚势跃迁  东风汽车集团有限公司2026全球校园招聘火热进行中！现诚邀您参加东风汽车集团--吉林大学站宣讲会： 【宣讲时间】：9月9日 14:00，【宣讲地点】：吉林大学 南岭校区 逸夫楼B114。新生代们，此刻逐梦正当时！东风汽车集团携手各子单位，走近你身旁，期待与你共赴东风汽车逐梦之约。 简历投递方式：http://dfmc.hotjob.cn，选择【校园招聘】频道进入网申投递页面；也可关注【东风汽车招聘】公众号，投递路径：职手可热-我要应聘-校园招聘；同时也欢迎大家现场投递哦。</t>
   </si>
@@ -81,6 +82,87 @@
   </si>
   <si>
     <t>9月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米哈游</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统策划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.13 笔试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.21 提交笔试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹰角</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗策划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.16 简历挂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉比特&amp;雷霆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIGC算法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州智元研究院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仿真系统开发工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山办公</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法工程师</t>
+  </si>
+  <si>
+    <t>电科36所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机软件类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>就在下周三‼吉林大学秋招硕博专场招聘会即将开始~~
+&lt;工信就业-中博汇&gt;秋招单位包括但不限于：
+【郑州大学】
+【辽宁工业大学】
+【东北电力大学】
+【华北理工大学】
+【青岛理工大学】
+【上海第二工业大学】
+【一汽解放汽车有限公司】
+【国防科技大学第六十三研究所】
+【中国兵器工业计算机应用技术研究所】
+..........100余家   全国各地【硕博】主流单位
+---------------------------------
+✅【时间】：2025年9月10日（周三）9:00-11:30
+✅【地点】：吉大-前卫南区-中心体育馆</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -143,6 +225,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -461,22 +546,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B511512-B38B-4340-8B05-26176E6EB56F}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="68" style="2" customWidth="1"/>
-    <col min="3" max="3" width="92" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="105.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="96.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" ht="69" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -486,8 +571,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:3" ht="69" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
       <c r="B2" s="2">
         <v>9</v>
       </c>
@@ -496,12 +581,20 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="179.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="207" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -514,4 +607,105 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896A6E12-AE40-4744-AFF0-6B176C5058E6}">
+  <dimension ref="D7:H12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="16.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>8.11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/招聘.xlsx
+++ b/招聘.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\FindWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF0F550-2BFF-45D7-AA6E-1F6A533A8850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F22DAE8-3507-4BDC-ADED-34C1AA0207C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D484C57-A207-46EA-AB74-95F0542E244B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>乘东风，共成长|东方风起，聚势跃迁  东风汽车集团有限公司2026全球校园招聘火热进行中！现诚邀您参加东风汽车集团--吉林大学站宣讲会： 【宣讲时间】：9月9日 14:00，【宣讲地点】：吉林大学 南岭校区 逸夫楼B114。新生代们，此刻逐梦正当时！东风汽车集团携手各子单位，走近你身旁，期待与你共赴东风汽车逐梦之约。 简历投递方式：http://dfmc.hotjob.cn，选择【校园招聘】频道进入网申投递页面；也可关注【东风汽车招聘】公众号，投递路径：职手可热-我要应聘-校园招聘；同时也欢迎大家现场投递哦。</t>
   </si>
@@ -163,6 +163,231 @@
 ---------------------------------
 ✅【时间】：2025年9月10日（周三）9:00-11:30
 ✅【地点】：吉大-前卫南区-中心体育馆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品经理(技术背景) </t>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东软集团2026校园招聘宣讲加面试，今天（2025.9.8），18:30，前卫校区敬信教学楼C101，有面试官，现场可投递简历面试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[庆祝]中国电科电子科学研究院[庆祝]
+2026届校园招聘-吉林大学站重磅开启！
+【时间】9月10日（周三）14：00
+【地点】前卫校区敬信教学楼A103
+宣讲会现场将有招聘负责人及部门负责人对公司情况进行详细讲解，会后可现场交流。
+简历投递：https://www.wjx.cn/vm/Q2CFIzX.aspx#
+期待您的到来～</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔，18.30-20.30 敬信楼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天一院 14-16，国际学术大讲堂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【宇通集团26届校园招聘-吉林大学】
+【宣讲时间】：2025年9月9日18:30-20:30
+【宣讲地点】：前卫-敬信教学楼-F区第二阶梯
+[哇]现场参加即可有机会领取：车模、抱枕、晴雨伞、马克杯、盲盒、钢笔等多种礼品
+⭐ 招聘岗位：
+[太阳]研发技术类、生产管理类、营销类、供应链类、职能类～[强][强]
+⭐ 专业匹配：
+车辆类、机械类、电气类、自动化类、电力类、电机类、电控类、材料类、人力资源类、企管类、经济类、财经类、法务类、语言类等
+⭐ 薪酬福利：
+本科综合年薪14w起
+硕士综合年薪17w起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挚文集团吉林大学校招专场！相约长春，我们不见不散！
+9.11 18.30-20.30 敬信楼F区第三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长存集团 ‖ 长江存储2026届校园招聘-吉林大学宣讲会
+时间：9月9日（周二） 19:00
+地点：前卫校区-国际学术大讲堂
+高管对话，校友互动，伴手礼、互动礼品送不停！为提前安排桌椅，现邀请参加宣讲会的同学填写报名链接：https://wj.qq.com/s2/23684842/6oy8/
+【面向人群】
+2026届海内外本、硕、博毕业生，
+微电子、材料、化学、物理、光学、电子、电气、机械、自动化、通信、计算机、数学、统计学、数据科学、软件开发、工业工程、管理科学与工程、暖通、环境、供应链管理等各类相关专业。
+【工作地点】
+武汉、北京、上海、深圳等
+【即刻网申】
+ymtc.zhiye.com/campus/jobs
+【校招QQ群】
+704139414</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长江存储</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏研发、策划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.10第二轮笔试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#帆软软件26届秋季校园招聘宣讲会——吉林大学站 启动啦！！
+📅宣讲时间：9月17日（周三）18：30
+📍 宣讲地点：前卫-敬信教学楼-C区109
+【关于帆软】
+✔ 中国大数据商业智能行业领跑者，连续8年市场占有率第一（IDC认证，超第2-5名总和）；
+✔ 服务70%+中国500强，36000+中大型企业合作客户；
+✔大数据行业头部独角兽，国家级专精特新，小巨人企业；
+✔全球20个分支机构、2000➕员工，地点自由选择；
+【正式批开放岗位】
+🔥产品类、研发类、设计类、市场类、客户交付与运营类（需求量大）、销售类（需求量大）、市场类、职能类等8大岗位群全线开放！
+（所有岗位专业不限，理工科优先；市场岗位优先日语，英语方向）
+🔥所有岗位月薪均1w+，产研岗位年包30-50w；
+【招聘地点】
+🔥全国多地有岗！具体详见招聘官网
+【线下宣讲专属福利】
+🎁现场收简历，hr全程内推！！最快一周内拿offer！！
+🎁部分岗位现场HR直面，快速get正式offer（视现场简历投递情况）；
+🎁现场随机发放帆软周边，互动赢取帆软周边等更多好礼；
+【网申链接】：https://join.fanruan.com/campus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月11日下午14点 吉林大学前卫校区敬信教学楼D区106
+中国电科二十八所举办宣讲会，会后直接安排面试，欢迎有意向同学携带简历到场参加。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[太阳]【校内宣讲会预告】
+[玫瑰]单位名称：中国电子科技集团公司第三十四研究所
+[咖啡]宣讲时间：9月12日 14:00-16:00
+地点：（前卫校区）前卫一鼎新图书馆4楼会议室 【招聘对象】：博士、硕士、本科
+【亮点待遇】：薪酬奖金：固定薪酬、绩效薪酬、中长期激励。博士赠送住房（约120平方米）一套，硕士等享受人才公寓，为符合条件的优秀毕业生推荐申请国家事业编制＋六险两金（补充商业保险，公积金比例12%），安家费、住房补贴、食堂餐补、出差补助、防暑降温费、保密津补贴，科研立项奖、科研验收奖、科研成果转化奖励等各种福利
+✅【专业需求】：光学工程、电子科学与技术、信息与通信工程、计算机科学与技术、软件工程、控制科学与工程、机械工程、仪器科学与技术、动力工程及工程热物理、电气工程、航空宇航科学与技术、物理学、管理、财务等等相关专业。
+去的会有伴手礼：帆布包➕笔记本➕笔等小礼品
+还有互动或者抽奖礼品等（宣章、手环</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发管培生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.10 笔试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南航</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仿真</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全机关岗位招聘宣讲
+宣讲时间：2025年9月16 日（星期二） 18:00
+宣讲地点：中心校区 王湘浩楼（原计算机楼）B108报告厅
+专业需求：计算机学院、软件学院
+学历需求：2026届本科生、硕士生。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【高质量就业单位推荐】外交部技术岗位招聘宣讲
+宣讲时间：2025年9月17日（星期三） 16:00
+宣讲地点：中心校区 王湘浩楼（原计算机楼）B108报告厅
+专业需求：计算机学院、软件学院、通信工程学院、人工智能学院相关专业
+学历需求：2026届本科生、硕士生。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.14 提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁德时代2026届全球校招正式启动！
+🖇️七大职位类别，20多个工作地点，3800+offer来袭
+【宁德时代】
+🌟全球领先的新能源创新科技公司
+🗺️全球已设立六大研发中心及十三大生产基地
+🥇动力电池使用量连续八年全球第一
+🥇储能电池出货量连续四年全球第一
+宣讲时间：9月16日 18:30
+宣讲场地：吉林大学前卫校区 敬信教学楼-F区第三阶梯
+————————————
+【网申地址】Talent.CATL.com
+【官方公众号】CATL宁德时代招聘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -228,6 +453,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -546,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B511512-B38B-4340-8B05-26176E6EB56F}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -557,11 +785,12 @@
     <col min="1" max="1" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="105.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="96.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="8.88671875" style="4"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="69" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -570,51 +799,176 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="69" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2">
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="179.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="165.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="289.8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="179.4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="207" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="8" spans="1:4" ht="207" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="220.8" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="331.2" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="69" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:C3">
-    <sortCondition ref="B1:B3"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:C17">
+    <sortCondition ref="B1:B17"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:A3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896A6E12-AE40-4744-AFF0-6B176C5058E6}">
-  <dimension ref="D7:H12"/>
+  <dimension ref="D7:I17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -625,10 +979,11 @@
     <col min="6" max="6" width="20.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="3"/>
+    <col min="9" max="9" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
@@ -644,8 +999,11 @@
       <c r="H7" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -659,7 +1017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
@@ -669,8 +1027,14 @@
       <c r="F9" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
@@ -681,7 +1045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
@@ -692,7 +1056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
@@ -701,6 +1065,61 @@
       </c>
       <c r="F12" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="3">
+        <v>9.11</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/招聘.xlsx
+++ b/招聘.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\FindWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F22DAE8-3507-4BDC-ADED-34C1AA0207C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD727A3-3527-4205-A456-8BBEC22938C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D484C57-A207-46EA-AB74-95F0542E244B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9D484C57-A207-46EA-AB74-95F0542E244B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
   <si>
     <t>乘东风，共成长|东方风起，聚势跃迁  东风汽车集团有限公司2026全球校园招聘火热进行中！现诚邀您参加东风汽车集团--吉林大学站宣讲会： 【宣讲时间】：9月9日 14:00，【宣讲地点】：吉林大学 南岭校区 逸夫楼B114。新生代们，此刻逐梦正当时！东风汽车集团携手各子单位，走近你身旁，期待与你共赴东风汽车逐梦之约。 简历投递方式：http://dfmc.hotjob.cn，选择【校园招聘】频道进入网申投递页面；也可关注【东风汽车招聘】公众号，投递路径：职手可热-我要应聘-校园招聘；同时也欢迎大家现场投递哦。</t>
   </si>
@@ -388,6 +388,234 @@
   </si>
   <si>
     <t>16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>🌟 龙湖集团2026届仕官生校园招聘吉大专场
+[礼物]交流会时间：
+9月24日 晚18:30
+[太阳]交流会地点：
+敬请期待
+🌻 招聘岗位：涵盖计算机、软件、数学、土木、建筑、环境、金融、管理、新闻传播、营销等多职能岗位，包括但不限于：
+产品经理/后端开发/数据模型/数据分析/商业管理/财务管理/人力资源/客户洞察/品牌策划/程管理/研发（建筑、精装、园林、景观）/供应链管理等
+🌻 点击下方链接即刻网申
+网申链接：https://longfor.zhaopin.com/
+👉 点击链接-“向上，仕不可挡”-岗位介绍-投递
+🌻 扫码加入吉大专属校招群惊喜多多，奖品多多，快来扫码加入吧
+欢迎大家网申投递哦！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月18日18:30敬信楼C区109希望大家能来听一听具体介绍研究生研发岗起薪在29-31w，总包在43w以上；本科生服务岗起薪21-23w,总包32w以上。南瑞继保</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今晚9月16日 18:30宣讲➕现场面试！
+【北京瓴岳科技有限公司】
+地点：敬信教学楼C区209
+☄【热招岗位】后端开发、分析、风控、产品、职能岗！本科研究生不限！​
+💡【工作地点】北京、上海，解决户口！
+💰【薪资福利】月薪2.2w - 3.5w！六险一金，弹性办公不打卡，每天早十晚七！周末双休！
+​​
+🚀吉大校友学长现场收简历 + 面试， “当天接触，快速推进”，OFFER 到手更快！​
+➡️简历投递链接： https://app.mokahr.com/campus-recruitment/fintopia/102255#/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比亚迪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发技术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆软</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品经理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鹏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【中办某局招录公务员、参公人员和事业单位工作人员】
+【时间】2025年9月23日(星期二)15:30
+【地点】中心校区逸夫楼第一阶梯教室
+【注意事项】
+①政治面貌：中共党员或中共预备党员
+②学历专业：硕士研究生及以上应届毕业生。专业要求详见图片。
+③请有意向的同学提前准备1张1寸白底免冠证件照和1份个人简历。现场将组织有意向报名的学生填写并提交纸质版信息登记表。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林大学宣讲会｜海柔创新2026届全球校招
+南岭校区：2025年9月19日（周五） 18:30
+逸夫楼-A302
+前卫校区：
+2025年9月22日（周一）18:30
+敬信教学楼-A103
+全球领先的箱式仓储机器人系统专家，加入海柔，和世界顶尖高校的大牛，一起引领行业技术发展。
+---------------------------
+✅研发岗位如下：
+算法类：运控算法工程师、感知算法工程师、运筹优化算法工程师【40-75万/年】
+机器人研发类：机械工程师、电气工程师、电机应用工程师、减速机应用工程师、硬件（本体）测试工程师、工艺工程师、嵌入式工程师、产品规划工程师、产品经理【25-50W/年】
+软件研发类：Java开发工程师、软件测试工程师（中/日区域）、软件测试开发工程师【25-50W/年】
+✅岗位大类：算法类、机器人研发类、软件研发类、营销交付类、设计类、供应链类、职能类
+✅地点：总部深圳、及海外欧、美日、韩、新、澳工作机会
+---------------------------
+投递链接：https://hairobotics.zhiye.com/campus，更多信息可扫码进群了解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国石油天然气集团公司全资物探专业化子公司——东方物探公司（英文缩写BGP）
+宣讲时间：2025年9月24 日（星期三）9：00-11：00
+宣讲地点：中心校区 王湘浩楼（原计算机楼）B340
+专业需求：计算机相关专业
+学历需求：2026届硕士、博士。
+请大家提前 10 分钟到场参加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[太阳][太阳]“德”天独厚  “清”爱人才2025年德清县百所高校行招才行动-吉林大学站
+专场招聘会时间：9月24日下午14:00-16:30
+地点：吉林大学前卫校区宋治平体育馆长廊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东集团2026校园招聘线下宣讲会
+[09月25日18:30 前卫-第三教学楼-第八阶梯]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.22简历挂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理想</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字孪生开发工程师-北京</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新大陆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIGC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国交通建设集团有限公司（中交集团）2026 届校园招聘吉林大学专场招聘会即将重磅开启，我们诚挚邀请怀揣梦想、追求卓越的你莅临现场，携手共创未来！
+【宣讲会信息】
+📅 时间：9月26日 10:00-10:45
+📍 地点：吉林大学（前卫南区）敬信楼一楼报告厅
+【招聘会信息】
+📅 时间：9月26日 10:45-12:00
+📍 地点：吉林大学（前卫南区）宋治平体育馆5号门长廊
+【 集团简介】
+中交集团是全球领先的特大型基础设施综合服务商，核心业务涵盖交通基础设施投资建设运营、装备制造、城市综合开发等领域，可为客户提供从投资融资、咨询规划到设计建造、管理运营的全链条一体化解决方案。现居《财富》世界 500 强第 61 位，是世界最大的港口、公路与桥梁设计建设公司，业务足迹遍布全球 150 多个国家。
+【招聘专业汇总】
+工程技术类：安全工程、水利工程、土木工程、岩土工程、地质工程、地球物理、路线总体、交安、互通专业、隧道与地下空间、建筑结构、建筑基础等；
+交通与测绘类：道路与铁道工程、桥梁与隧道工程、交通运输、交通运输工程、测绘工程、遥感科学与技术等；
+计算机与财经类：软件工程、计算机科学与技术、会计学、审计学等；
+其他类：行政管理、法律法务、工程管理、新闻学等。
+【现场惊喜】[烟花][烟花]
+宣讲会期间将设置趣味抽奖环节，丰富精美礼品现场放送：
+一等奖：华为手表
+二等奖：华为手环
+三等奖：米家保温杯
+参与即有机会收获惊喜，千万别错过！
+请同学们提前规划时间，携带个人简历前往对应场地。更多招聘细节将在宣讲会上详细解读。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>远光</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未参加第二轮笔试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.26拒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.18拒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中海油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北方微电</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.27笔试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -774,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B511512-B38B-4340-8B05-26176E6EB56F}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -934,25 +1162,97 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="331.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="138" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="331.2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="69" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+    <row r="18" spans="2:3" ht="69" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>56</v>
       </c>
     </row>
+    <row r="19" spans="2:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="289.8" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="276" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:C17">
-    <sortCondition ref="B1:B17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:C24">
+    <sortCondition ref="B1:B24"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:A3"/>
@@ -965,25 +1265,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896A6E12-AE40-4744-AFF0-6B176C5058E6}">
-  <dimension ref="D7:I17"/>
+  <dimension ref="D7:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="8.88671875" style="3"/>
     <col min="4" max="4" width="16.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="3"/>
+    <col min="5" max="5" width="5.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1002,8 +1304,14 @@
       <c r="I7" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1017,7 +1325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1033,8 +1341,11 @@
       <c r="H9" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
@@ -1045,7 +1356,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1055,8 +1366,11 @@
       <c r="F11" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G11" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1067,7 +1381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
@@ -1078,7 +1392,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
         <v>38</v>
       </c>
@@ -1089,7 +1403,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D15" s="3" t="s">
         <v>40</v>
       </c>
@@ -1100,7 +1414,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
         <v>49</v>
       </c>
@@ -1111,7 +1425,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17" s="3" t="s">
         <v>52</v>
       </c>
@@ -1120,6 +1434,119 @@
       </c>
       <c r="F17" s="3" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="3">
+        <v>9.18</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="3">
+        <v>9.18</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="3">
+        <v>9.18</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="3">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="3">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="3">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="3">
+        <v>9.25</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="3">
+        <v>9.27</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="3">
+        <v>9.27</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="3">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/招聘.xlsx
+++ b/招聘.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\FindWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12759\Documents\github\FindWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD727A3-3527-4205-A456-8BBEC22938C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E351661-113B-41A1-AD22-291356E4FBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9D484C57-A207-46EA-AB74-95F0542E244B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{9D484C57-A207-46EA-AB74-95F0542E244B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="112">
   <si>
     <t>乘东风，共成长|东方风起，聚势跃迁  东风汽车集团有限公司2026全球校园招聘火热进行中！现诚邀您参加东风汽车集团--吉林大学站宣讲会： 【宣讲时间】：9月9日 14:00，【宣讲地点】：吉林大学 南岭校区 逸夫楼B114。新生代们，此刻逐梦正当时！东风汽车集团携手各子单位，走近你身旁，期待与你共赴东风汽车逐梦之约。 简历投递方式：http://dfmc.hotjob.cn，选择【校园招聘】频道进入网申投递页面；也可关注【东风汽车招聘】公众号，投递路径：职手可热-我要应聘-校园招聘；同时也欢迎大家现场投递哦。</t>
   </si>
@@ -616,6 +616,48 @@
   </si>
   <si>
     <t>9.27笔试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江铜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中储粮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中运海航</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东风航空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东风汽车</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>呸喽呸喽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机科学与技术-共享中心</t>
+  </si>
+  <si>
+    <t>无界项目AI算法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国船舶集团第八研究院</t>
+  </si>
+  <si>
+    <t>人工智能工程师</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1008,16 +1050,16 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="105.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="96.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="4"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="105.46484375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="96.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.86328125" style="4"/>
+    <col min="5" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -1031,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="2" t="s">
         <v>25</v>
@@ -1043,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
       <c r="B3" s="2">
         <v>9</v>
@@ -1055,7 +1097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>29</v>
@@ -1064,7 +1106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="166.5" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>32</v>
@@ -1073,7 +1115,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="289.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="291.39999999999998" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
@@ -1084,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="179.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="180.4" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1092,7 +1134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="207" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="208.15" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1103,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="124.9" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
@@ -1114,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1122,7 +1164,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1130,7 +1172,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="41.65" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
@@ -1138,7 +1180,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="194.25" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
@@ -1146,7 +1188,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>55</v>
       </c>
@@ -1154,7 +1196,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="220.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="222" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
         <v>60</v>
       </c>
@@ -1162,7 +1204,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="138" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="138.75" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>66</v>
       </c>
@@ -1170,7 +1212,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="331.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="333" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
@@ -1178,7 +1220,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="69" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
         <v>57</v>
       </c>
@@ -1186,7 +1228,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
         <v>63</v>
       </c>
@@ -1194,7 +1236,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="289.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="291.39999999999998" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
         <v>76</v>
       </c>
@@ -1202,7 +1244,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" ht="111" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
         <v>74</v>
       </c>
@@ -1210,7 +1252,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="276" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" ht="277.5" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
         <v>62</v>
       </c>
@@ -1218,7 +1260,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" ht="83.25" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
         <v>78</v>
       </c>
@@ -1226,7 +1268,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" ht="41.65" x14ac:dyDescent="0.4">
       <c r="B24" s="2" t="s">
         <v>78</v>
       </c>
@@ -1234,7 +1276,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B25" s="2" t="s">
         <v>80</v>
       </c>
@@ -1242,7 +1284,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" ht="409.5" x14ac:dyDescent="0.4">
       <c r="B26" s="2" t="s">
         <v>89</v>
       </c>
@@ -1265,27 +1307,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896A6E12-AE40-4744-AFF0-6B176C5058E6}">
-  <dimension ref="D7:K27"/>
+  <dimension ref="D7:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="3"/>
-    <col min="4" max="4" width="16.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="3" width="8.86328125" style="3"/>
+    <col min="4" max="4" width="23.06640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.06640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.9296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.9296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.86328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1311,7 +1353,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1325,7 +1367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1345,7 +1387,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
@@ -1356,7 +1398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1370,7 +1412,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1381,7 +1423,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
@@ -1392,7 +1434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D14" s="3" t="s">
         <v>38</v>
       </c>
@@ -1403,7 +1445,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D15" s="3" t="s">
         <v>40</v>
       </c>
@@ -1414,7 +1456,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D16" s="3" t="s">
         <v>49</v>
       </c>
@@ -1425,7 +1467,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D17" s="3" t="s">
         <v>52</v>
       </c>
@@ -1436,7 +1478,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D18" s="3" t="s">
         <v>67</v>
       </c>
@@ -1447,7 +1489,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D19" s="3" t="s">
         <v>69</v>
       </c>
@@ -1461,7 +1503,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D20" s="3" t="s">
         <v>71</v>
       </c>
@@ -1472,7 +1514,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D21" s="3" t="s">
         <v>83</v>
       </c>
@@ -1483,7 +1525,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D22" s="3" t="s">
         <v>85</v>
       </c>
@@ -1494,7 +1536,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D23" s="3" t="s">
         <v>86</v>
       </c>
@@ -1505,7 +1547,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D24" s="3" t="s">
         <v>90</v>
       </c>
@@ -1516,7 +1558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D25" s="3" t="s">
         <v>94</v>
       </c>
@@ -1527,7 +1569,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D26" s="3" t="s">
         <v>96</v>
       </c>
@@ -1538,7 +1580,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D27" s="3" t="s">
         <v>98</v>
       </c>
@@ -1547,6 +1589,67 @@
       </c>
       <c r="F27" s="3" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D29" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D30" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D31" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D33" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D35" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/招聘.xlsx
+++ b/招聘.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12759\Documents\github\FindWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\FindWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E351661-113B-41A1-AD22-291356E4FBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894C7B7A-F424-414E-BFD8-EDE474F049DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{9D484C57-A207-46EA-AB74-95F0542E244B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9D484C57-A207-46EA-AB74-95F0542E244B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="157">
   <si>
     <t>乘东风，共成长|东方风起，聚势跃迁  东风汽车集团有限公司2026全球校园招聘火热进行中！现诚邀您参加东风汽车集团--吉林大学站宣讲会： 【宣讲时间】：9月9日 14:00，【宣讲地点】：吉林大学 南岭校区 逸夫楼B114。新生代们，此刻逐梦正当时！东风汽车集团携手各子单位，走近你身旁，期待与你共赴东风汽车逐梦之约。 简历投递方式：http://dfmc.hotjob.cn，选择【校园招聘】频道进入网申投递页面；也可关注【东风汽车招聘】公众号，投递路径：职手可热-我要应聘-校园招聘；同时也欢迎大家现场投递哦。</t>
   </si>
@@ -336,14 +336,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>南航</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>仿真</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>安全机关岗位招聘宣讲
 宣讲时间：2025年9月16 日（星期二） 18:00
 宣讲地点：中心校区 王湘浩楼（原计算机楼）B108报告厅
@@ -623,18 +615,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>中储粮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>中运海航</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>东风航空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>东风汽车</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -658,6 +642,340 @@
   </si>
   <si>
     <t>人工智能工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融科技岗（智能科学研发方向）</t>
+  </si>
+  <si>
+    <t>华润银行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大唐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总部人工智能/湖南计算机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉地铁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长虹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东-安卓TV应用开发（国际区智能电视）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国网信通宣讲时间:10月14日14:00
+宣讲地点:吉林大学(前卫校区)敬信教学楼D区110宣讲时间:10月14日14:00
+宣讲地点:吉林大学(前卫校区)敬信教学楼D区110宣讲时间:10月14日14:00
+宣讲地点:吉林大学(前卫校区)敬信教学楼D区110宣讲时间:10月14日14:00
+宣讲地点:吉林大学(前卫校区)敬信教学楼D区110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国电科芯片技术研究院邀您参加宣讲会！
+——吉林大学站
+🔔公司简介：中国电科芯片技术研究院是中国电子科技集团有限公司解决芯片“卡脖子”问题、有效保障产业链供应链安全，整合渝锡两地四个国家I类研究所研发资源，经中央编办批准设立的研发机构。中电科芯片技术（集团）有限公司与芯片院一体化运行，统称“电科芯片”。
+线下宣讲会：
+时间：2025-10-13(今天) 14:00-16:00 
+地点：吉林大学前卫南区-敬信教学楼-D301
+👉🏻事业单位，五险二金，安家费等多种福利，了解更多招聘信息，请查看高校就业网，一键网申：cetccq.zhiye.com
+今天线下定向专业面试计算机学院学生，有相关编译器经验的人，熟悉 GCC/LLVM 后端优化、RISC-V/ARM 指令集适配等，宣讲会现场面试。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜鸟集团26届秋季校园招聘｜吉林大学专场
+⏰ 时间：10月14日（周二）晚上18:30
+📍 地址：前卫校区敬信教学楼-D区106
+🤩 【专场预告&amp;限定福利】
+🔵 业务零距离对话
+🔵 HR专家简历诊断
+❗所有岗位现场参与简历投递，享有免AI福利
+🤩 【面试安排】
+🔵吉林大学特别开放，「非技术类岗位」面试
+🔵面试形式：群面；面试时间：10月15日上午
+🔵具体面试安排将于10月14日晚上一一通知
+❗参与可准备2份纸质版简历，标注意向岗位
+➡ 宣讲&amp;面试报名：https://www.wjx.cn/vm/mBXyyIQ.aspx#
+💬2026届校招资讯
+🎓岗位覆盖：技术类、运营类、物流类、产品类、数据类、职能类等
+📮网申投递：https://talent.cainiao.com/campus/recruitment-position?batchCode=freshman
+💪 欢迎加入 秉持菜鸟之心 超越鸿鹄之志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们虚位以待，只等你来！ 更多信息请搜索：魏桥国科研究院我们虚位以待，只等你来！
+更多信息请搜索：魏桥国科研究院我们虚位以待，只等你来！
+更多信息请搜索：魏桥国科研究院我们虚位以待，只等你来！
+更多信息请搜索：魏桥国科研究院我们虚位以待，只等你来！
+更多信息请搜索：魏桥国科研究院我们虚位以待，只等你来！
+更多信息请搜索：魏桥国科研究院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【高质量单位推荐17】中国航天科工集团第六研究院（以下简称六院），隶属于中国航天科工集团有限公司，主要承担固体火箭发动机的研制、生产、试验等任务，被誉为我国固体动力事业的摇篮。目前，六院已发展成为呼和浩特、西安、远安三地资源协同、文化融通、高科技人才聚集、综合实力雄厚的专业研究院。
+📅 时间：2025-10-13 14:00-16:00
+📍 地点：前卫-敬信教学楼-C209
+【工作地点】
+内蒙古呼和浩特，陕西西安，湖北远安
+【应聘流程】
+（一）网页端申报
+https://casic.m.zhiye.com/joblist.html?jc=2&amp;ky=&amp;pi=1&amp;ps=10&amp;c1=&amp;c2=3_35&amp;c=
+点击上方链接，选择单位及岗位进行简历投递。
+（二）校园线下宣讲会
+现场收取纸质简历，进行初试。
+特别注意：申报职位时，所有个人材料必须真实无误，如有虚假信息，将会被取消申请资格。
+【人才政策】
+快速的发展通道：岗位职称双通道、完善的人才发展体系、为你的成长保驾护航
+多元的人才培养体系：青年拔尖、优秀人才培养计划、专家导师1V1指导、高层次专家培养计划、全职业生涯专业技能培训课程、在职学历提升
+全方位的福利保障：人才公寓、租房补贴、购房补贴、福利食堂、安家费、带薪年假、探亲假、六险二金、定期体检、节日慰问、生日福利、劳保用品、防暑降温、人才发展基金、多维度激励体系
+融洽的工作氛围：有爱、有能量、有激情、有方向、有目标、有梦想的大家庭
+特色的文体活动：足球协会、篮球协会、羽毛球协会、文艺演出、运动会、青年联谊交友
+期待你加入六院
+铸就可靠的空天动力长城
+共赴动力报国的星河征途
+【 网址】：
+https://jdjyw.jlu.edu.cn/portal/jyzp/recruit/details?id=6e27bfd6603a4be4a92455550f375ef2</t>
+  </si>
+  <si>
+    <t>#10月16日博聚英才-长春专场
+【活动时间】2025年10月16日 下午14:00-17:00
+【活动地点】吉林大学前卫南区宋治平体育馆5号门长廊
+【面向对象】在读/应往届人才
+【招聘单位】
+吉林：北华大学、东北电力大学、长春汽车职业技术大学
+辽宁：大连理工大学盘锦校区、大连理工医学部、辽宁工程技术大学、锦州医科大学
+广东：暨南大学
+山东：山东大学(青岛)
+浙江：丽水学院
+江苏：江苏大学、江苏师范大学
+湖南：湖南第一师范学院
+江西：江西财经大学、南昌医学院
+（名单持续更新中，以最终参会学校为准）
+【报名链接】https://www.acabridge.net/#/share/enroll/399?s_id=1913&amp;o_id=1910534814525022210
+更有会后内推院校，更多学者通过此活动斩获offer！
+🎁现场为大家准备了伴手礼和茶歇零食饮品，更有🧧抽奖好礼！签到即可拥有。
+[爱心]转发活动到朋友圈或者人才群还可解锁隐藏福利，戳活动负责人朱老师微信13810101241（备注：姓名+长春场）领取。
+[玫瑰]欢迎大家扫码入群了解更多活动资讯后期求职信息也将在群内分享</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信雅达</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[太阳]乾程科技2026校招【吉林大学】专场宣讲会[太阳]
+【宣讲时间】10月13日18:30
+【宣讲地点】吉林大学 中心校区-敬信楼-D104
+请携带1份纸质简历参与，宣讲结束，现场投递，现场面试！
+✨乾程科技是一家专注于数字能源领域的全球化科技公司，包含“数字用能”和“新能源”两大核心业务板块，全球化布局，总部位于青岛崂山，工作地点：青岛、杭州、西安、营销类总部培养全国或海外派驻。
+🎄招聘岗位：研发类、营销类、交付类、职能类诸多职位！
+🎈招聘专业：电气类、自动化类、机械类、电子信息类、通信类、计算机类、控制类、能源类、会计、工业工程类、供应链类、管理类、营销类、语言类（英语、法语、西班牙语、葡萄牙语、德语）。
+🎉福利待遇：
+研发：本科：18W/年-25W/年，硕士20W/年-30W/年
+其他（交付、营销、职能）：
+本科12W/年-18W/年，硕士18W/年-25W/年
+博士50W起
+另有五险一金、免费住宿或住房补贴、节日福利、带薪年假、完善的师徒培养机制。
+乾程邀你，共启璀璨征程，共赴能源征途！
+职位信息详见网申：https://campus.51job.com/techen2025/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.15简历挂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中粮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【中伟股份-300919】
+🔥2026届校园招聘·吉林大学站｜与行业领袖并肩，开启全球事业版图！🔥
+1、宣讲会时间：10月20日下午14:00
+2、宣讲会地点：前卫-敬信教学楼- D区301
+💥 为什么选择中伟？
+✅ 年营收破400亿！员工2万+！全球15大产业基地（湖南/贵州/广西/韩国/摩洛哥/印尼等🌍）
+✅上市公司+行业龙头！手握核心技术，国家战略级赛道
+✅ 校友天团坐镇！研究总院/各职能中心/海外各大区等均有校友前辈担任中高层职务
+✅ 管培生专属：全球轮岗+导师1对1辅导3年
+金属矿遍布全球各国
+🚀【岗位方向】
+ ▶科创研发类管培生、 矿业资源类管培生、融资管理类管培生
+ ▶人力资源类管培生、安环管理类管培生、 信息技术类管培生
+ ▶供应链管理类管培生、 财务管理类管培生、市场营销类管培生。           
+🌟 全球TOP1新能源材料巨头喊你抢占黄金席位！
+💣 投递指南：
+❶ 投递简历链接：cngr.hotjob.cn
+❷ 公司介绍:http://www.cngrgf.com.cn/mobile/gsjs.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>派能科技2026届校园招聘校园招聘吉林大学专场宣讲会
+一、宣讲时间：10月15日 18:30-20:30
+二、宣讲地点：吉林大学前卫-逸夫楼-第五阶梯教室
+三、招聘岗位：
+1、研发技术类：JAVA软件工程师、AI软件工程师、产品规划工程师、硬件工程师、测试工程师、软件工程师、集成应用工程师、算法工程师、产品开发工程师、产品认证工程师、理化分析工程师、电池安全工程师、材料开发工程师等
+2、生产技术类：质量工程师、工艺工程师、设备工程师
+3、职能支持类：计划工程师、采购工程师、IT工程师。
+4、海内外营销技术类：商务专员、产品营销专员、品牌营销专员、技术服务工程师
+四、薪资待遇：本科年薪10-25W，硕士年薪10-30W，博士年薪35-50W
+五、网申投递链接：https://campus.51job.com/pylonbattery
+宣讲现场抽奖惊喜不重样，联想pad、智能手表、运动耳机、多轮红包等你来拿~
+我们不见不散~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舍弗勒中国区邀你参加吉林大学宣讲会
+🕢时间：10月15日 18:30
+📍地点：吉林大学 敬信C103
+▹岗位：系统、软件、硬件、设计、测试、材料、产品、管培生等多个岗位方向任你挑！
+▹福利待遇：基本工资 + 年终奖金 + 丰厚津贴，搭配覆盖法定、补充假期、生活礼金、贴心关怀的超市场福利，全方位赋能员工！
+💌现场宣讲、高效初面、多轮抽奖…亲临现场，快人一步斩获校招Offer！
+📮投递链接&amp;宣讲预告：https://mp.weixin.qq.com/s/d1J36Eldg4fr-DyJwZckLg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南航天</t>
+  </si>
+  <si>
+    <t>10.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节实习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江省海港投资运营集团</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同学，你好！
+感谢投递科大讯飞2026届校园招聘！
+现诚挚邀请你参加【科大讯飞2026届校招宣讲会-吉林大学专场】到场即送投递机会+1卡
+宣讲会现场收简历，有机会直通次日长春专场线下站点面试，当天完成面试流程(具体时间地点群内另行通知)
+【信息获取特权】高命中率岗位路透、增大进面机率技巧
+【求职辅导特权】开设能量补给站，HR现场答疑&amp;1V1简历辅导，校招全流程咨询答疑，简历优化/面试技巧通通拿捏
+������ 更有专场刮刮乐超高中奖率 （讯飞明星产品/校招礼盒/文创周边）来就对啦！
+时间：10月28日（周二）14:30
+地点：前卫校区 敬信教学楼-F区第一阶梯
+嘉宾：雷琴辉-讯飞智能汽车事业部副总裁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东山精密2026招聘--吉林大学
+双选会+宣讲会
+双选时间：10月28日9：00-12:00
+双选地点：吉林大学中心校区-宋治平体育馆
+宣讲时间：10月29日14:00-16:00
+宣讲地点：（地点持续更新）
+面试时间：宣讲后现场面试，以HR通知为准，校招群也会通知，同学们最好进微信群！
+具体面试日程会根据明天现场情况发出面试日程安排。各位同学带一份纸质简历，宣讲完直接安排面试，HR面试+业务面试，通过的现场签约。
+成立时间40年+，年营收300亿+，业务覆盖国家15，中国民营企业500强——大家好，我是DSBJ东山精密。
+2025届管培生需求地点包括江苏苏州、江苏盐城以及海外机会，培养方向包括产品研发工程师（汽车产品）、产品研发工程师（通讯产品）、工艺工程师、材料工程师、自动化工程师、CAE工程师、DFM工程师、质量工程师、Java工程师、人力资源专员、项目管理专员等，诚邀机械、电子、自动化、材料、能动等相关专业同学应聘。
+福利待遇：（工程类专业本科11000、硕士15000；非工程类专业本科9000、硕士12000）＋0.5个月签约奖金+年终奖金0~2个月+包吃住+班车接送＋节日福利+各种补贴+员工公寓+员工餐厅+生日派对等，综合下来现金部分，工程类同学年包本科14万左右、硕士22万左右＋包吃住行；非工程类同学本科12万左右、硕士17万左右。
+职业发展：定向培养+前沿项目+大牛导师，管培生培养目标2年到主管/高级工程师，5年到经理/主任工程师。
+必须网申！必须网申！否则不往下流转，请尽快网申！
+网申链接：https://dsbj.zhiye.com/campus/jobs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国机械工业集团</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰出版</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能出版</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国水电十六局</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.25 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建广电</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术管培</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -711,7 +1029,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,6 +1044,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1044,23 +1365,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B511512-B38B-4340-8B05-26176E6EB56F}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="D11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="105.46484375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="96.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.86328125" style="4"/>
-    <col min="5" max="16384" width="8.86328125" style="1"/>
+    <col min="1" max="1" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="190.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4"/>
+    <col min="5" max="6" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="149.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1069,35 +1392,47 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A2" s="5"/>
+      <c r="E1" s="1">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="138" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="69.400000000000006" x14ac:dyDescent="0.4">
-      <c r="A3" s="5"/>
+      <c r="F2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
       <c r="B3" s="2">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="372.6" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>29</v>
@@ -1105,8 +1440,14 @@
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="166.5" x14ac:dyDescent="0.4">
+      <c r="F4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="289.8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>32</v>
@@ -1114,73 +1455,112 @@
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="291.39999999999998" x14ac:dyDescent="0.4">
+      <c r="F5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="303.60000000000002" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="180.4" x14ac:dyDescent="0.4">
+      <c r="F6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="208.15" x14ac:dyDescent="0.4">
+      <c r="F7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="207" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="124.9" x14ac:dyDescent="0.4">
+      <c r="F8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="262.2" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="386.4" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="F10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="179.4" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="F11" s="1">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="276" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="194.25" x14ac:dyDescent="0.4">
+      <c r="F12" s="1">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
@@ -1188,31 +1568,31 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="222" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="220.8" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="138.75" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="333" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="317.39999999999998" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
@@ -1220,81 +1600,81 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" ht="69" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="27.75" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="291.39999999999998" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="276" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="248.4" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="111" x14ac:dyDescent="0.4">
-      <c r="B21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="277.5" x14ac:dyDescent="0.4">
-      <c r="B22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="83.25" x14ac:dyDescent="0.4">
-      <c r="B23" s="2" t="s">
+    <row r="24" spans="2:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B24" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="409.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:3" ht="372.6" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:C24">
-    <sortCondition ref="B1:B24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G37">
+    <sortCondition ref="F2:F37"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:A3"/>
@@ -1307,31 +1687,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896A6E12-AE40-4744-AFF0-6B176C5058E6}">
-  <dimension ref="D7:K35"/>
+  <dimension ref="D7:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.86328125" style="3"/>
-    <col min="4" max="4" width="23.06640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.06640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.86328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.9296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.9296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.86328125" style="3"/>
+    <col min="1" max="3" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="24.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>8.11</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -1347,17 +1727,17 @@
         <v>42</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>8.1199999999999992</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1367,11 +1747,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>9.6</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1381,275 +1761,411 @@
         <v>51</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>9.6999999999999993</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>9.6999999999999993</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
         <v>9.6999999999999993</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>9.8000000000000007</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="5">
         <v>9.9</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="5">
         <v>9.9</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="5">
         <v>9.11</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="3">
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="5">
+        <v>9.18</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="5">
         <v>9.18</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D19" s="3" t="s">
+      <c r="G19" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="5">
         <v>9.18</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="3" t="s">
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="5">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="3">
-        <v>9.18</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D21" s="3" t="s">
+      <c r="G21" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="3">
-        <v>9.2200000000000006</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D22" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="E22" s="5">
         <v>9.2200000000000006</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="3">
+        <v>84</v>
+      </c>
+      <c r="E23" s="5">
         <v>9.2200000000000006</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="3">
+        <v>88</v>
+      </c>
+      <c r="E24" s="5">
         <v>9.25</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="5">
+        <v>9.27</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E26" s="5">
         <v>9.27</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D26" s="3" t="s">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="3">
-        <v>9.27</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="E27" s="5">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D27" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="3">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="F27" s="3" t="s">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D28" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D32" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D29" s="3" t="s">
+      <c r="E32" s="5">
+        <v>10.9</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D30" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D31" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D32" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="3">
-        <v>10.9</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D33" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="5">
         <v>10.9</v>
       </c>
       <c r="F34" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="5">
+        <v>10.9</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D35" s="3" t="s">
+      <c r="E36" s="5">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="3">
-        <v>10.9</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="E37" s="5">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="5">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D40" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="5">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D43" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="5">
+        <v>10.15</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D44" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D47" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D49" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D50" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D51" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D52" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D53" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/招聘.xlsx
+++ b/招聘.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\FindWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894C7B7A-F424-414E-BFD8-EDE474F049DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515488DA-CCAE-4FF5-887D-582E6437A457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9D484C57-A207-46EA-AB74-95F0542E244B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="185">
   <si>
     <t>乘东风，共成长|东方风起，聚势跃迁  东风汽车集团有限公司2026全球校园招聘火热进行中！现诚邀您参加东风汽车集团--吉林大学站宣讲会： 【宣讲时间】：9月9日 14:00，【宣讲地点】：吉林大学 南岭校区 逸夫楼B114。新生代们，此刻逐梦正当时！东风汽车集团携手各子单位，走近你身旁，期待与你共赴东风汽车逐梦之约。 简历投递方式：http://dfmc.hotjob.cn，选择【校园招聘】频道进入网申投递页面；也可关注【东风汽车招聘】公众号，投递路径：职手可热-我要应聘-校园招聘；同时也欢迎大家现场投递哦。</t>
   </si>
@@ -976,6 +976,120 @@
   </si>
   <si>
     <t>技术管培</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【重要通知--秋季双选会】各位同学，就业中心刚刚发布《关于组织参加我校2026届毕业生秋季双选会的通知》https://oa.jlu.edu.cn/defaultroot/PortalInformation!getInformation.action?id=62049668&amp;channelId=179577，请毕业生同学按照通知要求，准时参加各项相关活动，并进行现场签到！
+    （一）2026届毕业生秋季双选会
+    我校2026届毕业生秋季双选会，共邀请包括中国第一汽车集团有限公司、中国机械工业集团有限公司、中国电子科技集团公司、中国航天科技集团、中国能源建设集团、中粮集团有限公司、中国中车集团有限公司、中国船舶集团有限公司等参会用人单位1100余家，提供用人需求岗位近6万个。  
+    时间：2025年10月28日（星期二）8:30-15:00
+    地点：中心校区宋治平体育馆篮球比赛馆、网球馆、篮球训练馆、排球馆、田径馆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.27简历挂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东山精密</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.28提前批发面试，放弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西航空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI模型部署工程师</t>
+  </si>
+  <si>
+    <t>信息技术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广晟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳特发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产业管培生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江铃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI技术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇瑞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频算法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能体架构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道旅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深农投</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>货讯通科技(珠海)有限公司</t>
+  </si>
+  <si>
+    <t>11.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据科学家</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1567,6 +1681,12 @@
       <c r="C13" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="F13" s="1">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
@@ -1687,10 +1807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896A6E12-AE40-4744-AFF0-6B176C5058E6}">
-  <dimension ref="D7:K53"/>
+  <dimension ref="D7:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1699,7 +1819,7 @@
     <col min="4" max="4" width="24.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="5" customWidth="1"/>
     <col min="6" max="6" width="41.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="14.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
@@ -1847,7 +1967,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18" s="3" t="s">
         <v>65</v>
       </c>
@@ -1858,7 +1978,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
         <v>67</v>
       </c>
@@ -1872,7 +1992,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D20" s="3" t="s">
         <v>69</v>
       </c>
@@ -1882,8 +2002,11 @@
       <c r="F20" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D21" s="3" t="s">
         <v>81</v>
       </c>
@@ -1897,7 +2020,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D22" s="3" t="s">
         <v>83</v>
       </c>
@@ -1908,7 +2031,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D23" s="3" t="s">
         <v>84</v>
       </c>
@@ -1919,7 +2042,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D24" s="3" t="s">
         <v>88</v>
       </c>
@@ -1929,8 +2052,11 @@
       <c r="F24" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D25" s="3" t="s">
         <v>92</v>
       </c>
@@ -1940,8 +2066,11 @@
       <c r="F25" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D26" s="3" t="s">
         <v>94</v>
       </c>
@@ -1952,7 +2081,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D27" s="3" t="s">
         <v>96</v>
       </c>
@@ -1963,7 +2092,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D28" s="3" t="s">
         <v>99</v>
       </c>
@@ -1971,12 +2100,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D30" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D32" s="3" t="s">
         <v>101</v>
       </c>
@@ -2166,6 +2295,110 @@
       </c>
       <c r="F53" s="3" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D54" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D55" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D56" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D57" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D58" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D59" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D60" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D61" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D62" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D63" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/招聘.xlsx
+++ b/招聘.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\FindWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12759\Documents\github\FindWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515488DA-CCAE-4FF5-887D-582E6437A457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3590058-FC3B-461B-9C02-CE07200D8E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9D484C57-A207-46EA-AB74-95F0542E244B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{9D484C57-A207-46EA-AB74-95F0542E244B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="189">
   <si>
     <t>乘东风，共成长|东方风起，聚势跃迁  东风汽车集团有限公司2026全球校园招聘火热进行中！现诚邀您参加东风汽车集团--吉林大学站宣讲会： 【宣讲时间】：9月9日 14:00，【宣讲地点】：吉林大学 南岭校区 逸夫楼B114。新生代们，此刻逐梦正当时！东风汽车集团携手各子单位，走近你身旁，期待与你共赴东风汽车逐梦之约。 简历投递方式：http://dfmc.hotjob.cn，选择【校园招聘】频道进入网申投递页面；也可关注【东风汽车招聘】公众号，投递路径：职手可热-我要应聘-校园招聘；同时也欢迎大家现场投递哦。</t>
   </si>
@@ -1090,6 +1090,22 @@
   </si>
   <si>
     <t>数据科学家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江铃股份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.19笔试摆烂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴唐</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1485,18 +1501,18 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.53125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="190.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="190.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.86328125" style="4"/>
     <col min="5" max="6" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="149.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="149.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -1516,7 +1532,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="138" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="138.75" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
         <v>25</v>
@@ -1531,7 +1547,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
       <c r="B3" s="2">
         <v>9</v>
@@ -1546,7 +1562,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="372.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="374.65" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>29</v>
@@ -1561,7 +1577,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="289.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="291.39999999999998" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>32</v>
@@ -1576,7 +1592,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="303.60000000000002" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="305.25" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
@@ -1590,7 +1606,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="193.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="194.25" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1604,7 +1620,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="207" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="208.15" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1618,7 +1634,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="262.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="263.64999999999998" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
@@ -1632,7 +1648,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="386.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="388.5" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1646,7 +1662,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="179.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="180.4" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1660,7 +1676,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="276" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="277.5" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
@@ -1674,7 +1690,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="152.65" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
@@ -1688,7 +1704,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>53</v>
       </c>
@@ -1696,7 +1712,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="220.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="222" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
         <v>58</v>
       </c>
@@ -1704,7 +1720,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="138" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="138.75" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>64</v>
       </c>
@@ -1712,7 +1728,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="317.39999999999998" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="319.14999999999998" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
@@ -1720,7 +1736,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="69" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="69.400000000000006" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
         <v>55</v>
       </c>
@@ -1728,7 +1744,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
         <v>61</v>
       </c>
@@ -1736,7 +1752,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="276" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="277.5" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
         <v>74</v>
       </c>
@@ -1744,7 +1760,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" ht="97.15" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
         <v>72</v>
       </c>
@@ -1752,7 +1768,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="248.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" ht="249.75" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
         <v>60</v>
       </c>
@@ -1760,7 +1776,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" ht="83.25" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
         <v>76</v>
       </c>
@@ -1768,7 +1784,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" ht="41.65" x14ac:dyDescent="0.4">
       <c r="B24" s="2" t="s">
         <v>76</v>
       </c>
@@ -1776,7 +1792,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B25" s="2" t="s">
         <v>78</v>
       </c>
@@ -1784,7 +1800,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="372.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" ht="374.65" x14ac:dyDescent="0.4">
       <c r="B26" s="2" t="s">
         <v>87</v>
       </c>
@@ -1807,27 +1823,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896A6E12-AE40-4744-AFF0-6B176C5058E6}">
-  <dimension ref="D7:K63"/>
+  <dimension ref="D7:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63:G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="3"/>
-    <col min="4" max="4" width="24.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.86328125" style="3"/>
+    <col min="4" max="4" width="24.86328125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.53125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.796875" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="3"/>
+    <col min="11" max="11" width="7.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.86328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1853,7 +1869,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1867,7 +1883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1887,7 +1903,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
@@ -1898,7 +1914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1912,7 +1928,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1923,7 +1939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
@@ -1934,7 +1950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D14" s="3" t="s">
         <v>38</v>
       </c>
@@ -1945,7 +1961,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D15" s="3" t="s">
         <v>40</v>
       </c>
@@ -1956,7 +1972,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D16" s="3" t="s">
         <v>49</v>
       </c>
@@ -1967,7 +1983,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D18" s="3" t="s">
         <v>65</v>
       </c>
@@ -1978,7 +1994,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D19" s="3" t="s">
         <v>67</v>
       </c>
@@ -1992,7 +2008,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D20" s="3" t="s">
         <v>69</v>
       </c>
@@ -2006,7 +2022,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D21" s="3" t="s">
         <v>81</v>
       </c>
@@ -2020,7 +2036,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D22" s="3" t="s">
         <v>83</v>
       </c>
@@ -2031,7 +2047,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D23" s="3" t="s">
         <v>84</v>
       </c>
@@ -2042,7 +2058,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D24" s="3" t="s">
         <v>88</v>
       </c>
@@ -2056,7 +2072,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D25" s="3" t="s">
         <v>92</v>
       </c>
@@ -2070,7 +2086,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D26" s="3" t="s">
         <v>94</v>
       </c>
@@ -2081,7 +2097,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D27" s="3" t="s">
         <v>96</v>
       </c>
@@ -2092,7 +2108,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D28" s="3" t="s">
         <v>99</v>
       </c>
@@ -2100,12 +2116,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D30" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D32" s="3" t="s">
         <v>101</v>
       </c>
@@ -2116,12 +2132,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D33" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D34" s="3" t="s">
         <v>13</v>
       </c>
@@ -2132,7 +2148,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D35" s="3" t="s">
         <v>106</v>
       </c>
@@ -2143,7 +2159,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D36" s="3" t="s">
         <v>109</v>
       </c>
@@ -2154,7 +2170,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D37" s="3" t="s">
         <v>110</v>
       </c>
@@ -2165,7 +2181,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D38" s="3" t="s">
         <v>112</v>
       </c>
@@ -2176,12 +2192,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D39" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D40" s="3" t="s">
         <v>115</v>
       </c>
@@ -2192,12 +2208,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D42" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D43" s="3" t="s">
         <v>128</v>
       </c>
@@ -2208,12 +2224,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D44" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D45" s="3" t="s">
         <v>137</v>
       </c>
@@ -2224,7 +2240,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D46" s="3" t="s">
         <v>139</v>
       </c>
@@ -2235,7 +2251,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D47" s="3" t="s">
         <v>141</v>
       </c>
@@ -2243,7 +2259,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.4">
       <c r="D48" s="3" t="s">
         <v>143</v>
       </c>
@@ -2254,17 +2270,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D49" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D50" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D51" s="3" t="s">
         <v>149</v>
       </c>
@@ -2275,7 +2291,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D52" s="3" t="s">
         <v>153</v>
       </c>
@@ -2286,7 +2302,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D53" s="3" t="s">
         <v>155</v>
       </c>
@@ -2297,12 +2313,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D54" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D55" s="3" t="s">
         <v>162</v>
       </c>
@@ -2313,7 +2329,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D56" s="3" t="s">
         <v>166</v>
       </c>
@@ -2324,7 +2340,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D57" s="3" t="s">
         <v>167</v>
       </c>
@@ -2335,7 +2351,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D58" s="3" t="s">
         <v>169</v>
       </c>
@@ -2346,7 +2362,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D59" s="3" t="s">
         <v>172</v>
       </c>
@@ -2357,7 +2373,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D60" s="3" t="s">
         <v>175</v>
       </c>
@@ -2368,7 +2384,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D61" s="3" t="s">
         <v>178</v>
       </c>
@@ -2378,8 +2394,11 @@
       <c r="F61" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D62" s="3" t="s">
         <v>180</v>
       </c>
@@ -2390,7 +2409,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:7" x14ac:dyDescent="0.4">
       <c r="D63" s="3" t="s">
         <v>182</v>
       </c>
@@ -2399,6 +2418,28 @@
       </c>
       <c r="F63" s="3" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D64" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D65" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/招聘.xlsx
+++ b/招聘.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12759\Documents\github\FindWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\FindWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3590058-FC3B-461B-9C02-CE07200D8E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA612D6-D077-448A-AB86-330241A3620B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{9D484C57-A207-46EA-AB74-95F0542E244B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9D484C57-A207-46EA-AB74-95F0542E244B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="194">
   <si>
     <t>乘东风，共成长|东方风起，聚势跃迁  东风汽车集团有限公司2026全球校园招聘火热进行中！现诚邀您参加东风汽车集团--吉林大学站宣讲会： 【宣讲时间】：9月9日 14:00，【宣讲地点】：吉林大学 南岭校区 逸夫楼B114。新生代们，此刻逐梦正当时！东风汽车集团携手各子单位，走近你身旁，期待与你共赴东风汽车逐梦之约。 简历投递方式：http://dfmc.hotjob.cn，选择【校园招聘】频道进入网申投递页面；也可关注【东风汽车招聘】公众号，投递路径：职手可热-我要应聘-校园招聘；同时也欢迎大家现场投递哦。</t>
   </si>
@@ -1107,6 +1107,21 @@
   <si>
     <t>兴唐</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电网</t>
+  </si>
+  <si>
+    <t>11.24</t>
+  </si>
+  <si>
+    <t>江西、宁波、</t>
+  </si>
+  <si>
+    <t>华为</t>
+  </si>
+  <si>
+    <t>多模态</t>
   </si>
 </sst>
 </file>
@@ -1501,18 +1516,18 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="190.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.86328125" style="4"/>
+    <col min="3" max="3" width="190.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4"/>
     <col min="5" max="6" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="149.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.86328125" style="1"/>
+    <col min="7" max="7" width="149.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -1532,7 +1547,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="138.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
         <v>25</v>
@@ -1547,7 +1562,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="2">
         <v>9</v>
@@ -1562,7 +1577,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="374.65" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="372.6" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>29</v>
@@ -1577,7 +1592,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="291.39999999999998" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="289.8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>32</v>
@@ -1592,7 +1607,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="305.25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="303.60000000000002" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
@@ -1606,7 +1621,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="194.25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="193.2" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1620,7 +1635,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="208.15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="207" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1634,7 +1649,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="263.64999999999998" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="262.2" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
@@ -1648,7 +1663,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="388.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="386.4" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1662,7 +1677,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="180.4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="179.4" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1676,7 +1691,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="277.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="276" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
@@ -1690,7 +1705,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="152.65" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
@@ -1704,7 +1719,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>53</v>
       </c>
@@ -1712,7 +1727,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="222" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="220.8" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>58</v>
       </c>
@@ -1720,7 +1735,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="138.75" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="138" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>64</v>
       </c>
@@ -1728,7 +1743,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="319.14999999999998" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:3" ht="317.39999999999998" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
@@ -1736,7 +1751,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="69.400000000000006" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" ht="69" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>55</v>
       </c>
@@ -1744,7 +1759,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>61</v>
       </c>
@@ -1752,7 +1767,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="277.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:3" ht="276" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>74</v>
       </c>
@@ -1760,7 +1775,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="97.15" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:3" ht="96.6" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>72</v>
       </c>
@@ -1768,7 +1783,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="249.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:3" ht="248.4" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>60</v>
       </c>
@@ -1776,7 +1791,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="83.25" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:3" ht="82.8" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>76</v>
       </c>
@@ -1784,7 +1799,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>76</v>
       </c>
@@ -1792,7 +1807,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>78</v>
       </c>
@@ -1800,7 +1815,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="374.65" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:3" ht="372.6" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>87</v>
       </c>
@@ -1823,27 +1838,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896A6E12-AE40-4744-AFF0-6B176C5058E6}">
-  <dimension ref="D7:K65"/>
+  <dimension ref="D7:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63:G63"/>
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.86328125" style="3"/>
-    <col min="4" max="4" width="24.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="24.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.86328125" style="3"/>
+    <col min="11" max="11" width="7.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1869,7 +1884,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1883,7 +1898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1903,7 +1918,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
@@ -1914,7 +1929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1928,7 +1943,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1939,7 +1954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
@@ -1950,7 +1965,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
         <v>38</v>
       </c>
@@ -1961,7 +1976,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D15" s="3" t="s">
         <v>40</v>
       </c>
@@ -1972,7 +1987,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
         <v>49</v>
       </c>
@@ -1983,7 +1998,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18" s="3" t="s">
         <v>65</v>
       </c>
@@ -1994,7 +2009,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
         <v>67</v>
       </c>
@@ -2008,7 +2023,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D20" s="3" t="s">
         <v>69</v>
       </c>
@@ -2022,7 +2037,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D21" s="3" t="s">
         <v>81</v>
       </c>
@@ -2036,7 +2051,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D22" s="3" t="s">
         <v>83</v>
       </c>
@@ -2047,7 +2062,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D23" s="3" t="s">
         <v>84</v>
       </c>
@@ -2058,7 +2073,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D24" s="3" t="s">
         <v>88</v>
       </c>
@@ -2072,7 +2087,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D25" s="3" t="s">
         <v>92</v>
       </c>
@@ -2086,7 +2101,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D26" s="3" t="s">
         <v>94</v>
       </c>
@@ -2097,7 +2112,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D27" s="3" t="s">
         <v>96</v>
       </c>
@@ -2108,7 +2123,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D28" s="3" t="s">
         <v>99</v>
       </c>
@@ -2116,12 +2131,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D30" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D32" s="3" t="s">
         <v>101</v>
       </c>
@@ -2132,12 +2147,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" s="3" t="s">
         <v>13</v>
       </c>
@@ -2148,7 +2163,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35" s="3" t="s">
         <v>106</v>
       </c>
@@ -2159,7 +2174,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36" s="3" t="s">
         <v>109</v>
       </c>
@@ -2170,7 +2185,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37" s="3" t="s">
         <v>110</v>
       </c>
@@ -2181,7 +2196,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D38" s="3" t="s">
         <v>112</v>
       </c>
@@ -2192,12 +2207,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D39" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D40" s="3" t="s">
         <v>115</v>
       </c>
@@ -2208,12 +2223,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D42" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D43" s="3" t="s">
         <v>128</v>
       </c>
@@ -2224,12 +2239,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D44" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D45" s="3" t="s">
         <v>137</v>
       </c>
@@ -2240,7 +2255,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D46" s="3" t="s">
         <v>139</v>
       </c>
@@ -2251,7 +2266,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D47" s="3" t="s">
         <v>141</v>
       </c>
@@ -2259,7 +2274,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D48" s="3" t="s">
         <v>143</v>
       </c>
@@ -2270,17 +2285,17 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D49" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D50" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D51" s="3" t="s">
         <v>149</v>
       </c>
@@ -2291,7 +2306,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D52" s="3" t="s">
         <v>153</v>
       </c>
@@ -2302,7 +2317,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D53" s="3" t="s">
         <v>155</v>
       </c>
@@ -2313,12 +2328,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D54" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D55" s="3" t="s">
         <v>162</v>
       </c>
@@ -2329,7 +2344,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D56" s="3" t="s">
         <v>166</v>
       </c>
@@ -2340,7 +2355,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D57" s="3" t="s">
         <v>167</v>
       </c>
@@ -2351,7 +2366,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D58" s="3" t="s">
         <v>169</v>
       </c>
@@ -2362,7 +2377,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D59" s="3" t="s">
         <v>172</v>
       </c>
@@ -2373,7 +2388,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D60" s="3" t="s">
         <v>175</v>
       </c>
@@ -2384,7 +2399,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D61" s="3" t="s">
         <v>178</v>
       </c>
@@ -2398,7 +2413,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D62" s="3" t="s">
         <v>180</v>
       </c>
@@ -2409,7 +2424,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D63" s="3" t="s">
         <v>182</v>
       </c>
@@ -2420,7 +2435,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D64" s="3" t="s">
         <v>185</v>
       </c>
@@ -2431,7 +2446,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D65" s="3" t="s">
         <v>188</v>
       </c>
@@ -2440,6 +2455,28 @@
       </c>
       <c r="F65" s="3" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D66" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D67" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
